--- a/Test Data/TC_71697_Verify_Battery_Standby_On_Change_Of_Stand_By_Hours_Alarm_Hours_Battery_Factor_FC.xlsx
+++ b/Test Data/TC_71697_Verify_Battery_Standby_On_Change_Of_Stand_By_Hours_Alarm_Hours_Battery_Factor_FC.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1D3C7A-5803-4CB4-8EB3-C059B1253282}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{29D4CE2D-39F0-4CF9-A42D-CA7FFE52213F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -103,12 +102,18 @@
   </si>
   <si>
     <t>1.50</t>
+  </si>
+  <si>
+    <t>Minimum battery (Ah)</t>
+  </si>
+  <si>
+    <t>MinBatteryLoadingDetail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0074C175-3AAE-48E4-A5F5-F0CE7E542FF4}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,7 +591,7 @@
     <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -599,7 +604,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -614,7 +619,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -629,7 +634,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -642,7 +647,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="9"/>
       <c r="D5" s="6" t="s">
         <v>8</v>
@@ -653,10 +658,10 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
@@ -687,8 +692,11 @@
       <c r="J7" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="K7" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
@@ -718,6 +726,9 @@
       </c>
       <c r="J8" s="16">
         <v>2.7389E-2</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_71697_Verify_Battery_Standby_On_Change_Of_Stand_By_Hours_Alarm_Hours_Battery_Factor_FC.xlsx
+++ b/Test Data/TC_71697_Verify_Battery_Standby_On_Change_Of_Stand_By_Hours_Alarm_Hours_Battery_Factor_FC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7144DEA-641B-4963-9BAD-5D0713391BFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -113,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,7 +567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -589,6 +584,7 @@
     <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.77734375" customWidth="1"/>
     <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">

--- a/Test Data/TC_71697_Verify_Battery_Standby_On_Change_Of_Stand_By_Hours_Alarm_Hours_Battery_Factor_FC.xlsx
+++ b/Test Data/TC_71697_Verify_Battery_Standby_On_Change_Of_Stand_By_Hours_Alarm_Hours_Battery_Factor_FC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7144DEA-641B-4963-9BAD-5D0713391BFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="1" r:id="rId1"/>
@@ -99,16 +98,16 @@
     <t>1.50</t>
   </si>
   <si>
-    <t>Minimum battery (Ah)</t>
-  </si>
-  <si>
     <t>MinBatteryLoadingDetail</t>
+  </si>
+  <si>
+    <t>Minimum Battery size(Ah)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,11 +566,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,7 +688,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -724,7 +723,7 @@
         <v>2.7389E-2</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_71697_Verify_Battery_Standby_On_Change_Of_Stand_By_Hours_Alarm_Hours_Battery_Factor_FC.xlsx
+++ b/Test Data/TC_71697_Verify_Battery_Standby_On_Change_Of_Stand_By_Hours_Alarm_Hours_Battery_Factor_FC.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6221A32F-B363-4F90-BA1D-DD56DF2C6FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -102,12 +104,18 @@
   </si>
   <si>
     <t>Minimum Battery size(Ah)</t>
+  </si>
+  <si>
+    <t>FC702S</t>
+  </si>
+  <si>
+    <t>1.75</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -566,11 +574,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,8 +715,8 @@
       <c r="E8" s="14">
         <v>16</v>
       </c>
-      <c r="F8" s="16">
-        <v>2.2824000000000001E-2</v>
+      <c r="F8" s="9">
+        <v>22.9</v>
       </c>
       <c r="G8" s="14" t="b">
         <v>0</v>
@@ -719,10 +727,45 @@
       <c r="I8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="16">
-        <v>2.7389E-2</v>
+      <c r="J8" s="9">
+        <v>28.98</v>
       </c>
       <c r="K8" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="14">
+        <v>16</v>
+      </c>
+      <c r="F9" s="9">
+        <v>25.12</v>
+      </c>
+      <c r="G9" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>77</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="9">
+        <v>37.58</v>
+      </c>
+      <c r="K9" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -734,4 +777,175 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0524D67E-DCD5-4D14-91F6-8D26B1E0671D}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="9"/>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="14">
+        <v>16</v>
+      </c>
+      <c r="F8" s="16">
+        <v>2.2824000000000001E-2</v>
+      </c>
+      <c r="G8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>76</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="16">
+        <v>2.7389E-2</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/TC_71697_Verify_Battery_Standby_On_Change_Of_Stand_By_Hours_Alarm_Hours_Battery_Factor_FC.xlsx
+++ b/Test Data/TC_71697_Verify_Battery_Standby_On_Change_Of_Stand_By_Hours_Alarm_Hours_Battery_Factor_FC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6221A32F-B363-4F90-BA1D-DD56DF2C6FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA94A0FC-76A3-4B3B-9D6A-3CB4F9720895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>1.75</t>
+  </si>
+  <si>
+    <t>FC64-2</t>
+  </si>
+  <si>
+    <t>NGC-1928/T962 OR TC-71697</t>
+  </si>
+  <si>
+    <t>verifyStandyByAlarmHourAndBatteryFactor</t>
+  </si>
+  <si>
+    <t>Alarm Hours</t>
   </si>
 </sst>
 </file>
@@ -575,10 +587,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.77734375" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="9"/>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="14">
+        <v>16</v>
+      </c>
+      <c r="F8" s="9">
+        <v>25.12</v>
+      </c>
+      <c r="G8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>77</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="9">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0524D67E-DCD5-4D14-91F6-8D26B1E0671D}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,8 +910,8 @@
       <c r="E8" s="14">
         <v>16</v>
       </c>
-      <c r="F8" s="9">
-        <v>22.9</v>
+      <c r="F8" s="16">
+        <v>2.2824000000000001E-2</v>
       </c>
       <c r="G8" s="14" t="b">
         <v>0</v>
@@ -727,8 +922,8 @@
       <c r="I8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="9">
-        <v>28.98</v>
+      <c r="J8" s="16">
+        <v>2.7389E-2</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>25</v>
@@ -736,7 +931,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>18</v>
@@ -751,192 +946,21 @@
         <v>16</v>
       </c>
       <c r="F9" s="9">
-        <v>25.12</v>
+        <v>20.39</v>
       </c>
       <c r="G9" s="14" t="b">
         <v>0</v>
       </c>
       <c r="H9" s="14">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J9" s="9">
-        <v>37.58</v>
+        <v>25.81</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0524D67E-DCD5-4D14-91F6-8D26B1E0671D}">
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.77734375" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="9"/>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="14">
-        <v>16</v>
-      </c>
-      <c r="F8" s="16">
-        <v>2.2824000000000001E-2</v>
-      </c>
-      <c r="G8" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <v>76</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="16">
-        <v>2.7389E-2</v>
-      </c>
-      <c r="K8" s="14" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Test Data/TC_71697_Verify_Battery_Standby_On_Change_Of_Stand_By_Hours_Alarm_Hours_Battery_Factor_FC.xlsx
+++ b/Test Data/TC_71697_Verify_Battery_Standby_On_Change_Of_Stand_By_Hours_Alarm_Hours_Battery_Factor_FC.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA94A0FC-76A3-4B3B-9D6A-3CB4F9720895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B287D6E8-982D-4C01-94EB-D61CB938A08F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -590,7 +591,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,7 +738,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="9">
-        <v>25.12</v>
+        <v>8.6</v>
       </c>
       <c r="G8" s="14" t="b">
         <v>0</v>
@@ -752,7 +753,7 @@
         <v>0.75</v>
       </c>
       <c r="K8" s="9">
-        <v>37.799999999999997</v>
+        <v>37.86</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>25</v>
@@ -972,4 +973,187 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36C927A-EFC1-4D83-8688-4BB5DA6E42B6}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.77734375" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="9"/>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="14">
+        <v>16</v>
+      </c>
+      <c r="F8" s="9">
+        <v>25.12</v>
+      </c>
+      <c r="G8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>77</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="9">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>